--- a/4.Analysis/Data/raw/day1/phase_009/invalid_day1_phase_009.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_009/invalid_day1_phase_009.xlsx
@@ -12,90 +12,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_IAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env_Q2_item4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ParticipantID</t>
+    <t xml:space="preserve">con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt_over10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt_les300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proportion</t>
   </si>
 </sst>
 </file>
@@ -476,42 +440,6 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
